--- a/Shanghai_COVID.xlsx
+++ b/Shanghai_COVID.xlsx
@@ -4,22 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13010" windowHeight="9430"/>
+    <workbookView windowWidth="21600" windowHeight="10730"/>
   </bookViews>
   <sheets>
-    <sheet name="Shanghai_COVID" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Cases</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
   </si>
   <si>
     <t>No Symptom</t>
@@ -30,11 +36,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -42,35 +48,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -90,7 +67,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,10 +111,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,67 +188,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -198,19 +204,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,55 +276,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,103 +366,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,6 +395,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -422,6 +439,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -433,6 +459,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,44 +495,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -497,10 +503,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -509,16 +515,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -527,115 +533,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -968,10 +974,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -998,8 +1004,8 @@
       <c r="B2">
         <v>260</v>
       </c>
-      <c r="C2">
-        <v>6051</v>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1010,8 +1016,8 @@
       <c r="B3">
         <v>438</v>
       </c>
-      <c r="C3">
-        <v>7788</v>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1022,8 +1028,8 @@
       <c r="B4">
         <v>425</v>
       </c>
-      <c r="C4">
-        <v>8581</v>
+      <c r="C4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1034,8 +1040,8 @@
       <c r="B5">
         <v>268</v>
       </c>
-      <c r="C5">
-        <v>13086</v>
+      <c r="C5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1046,8 +1052,8 @@
       <c r="B6">
         <v>311</v>
       </c>
-      <c r="C6">
-        <v>16766</v>
+      <c r="C6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1058,8 +1064,8 @@
       <c r="B7">
         <v>322</v>
       </c>
-      <c r="C7">
-        <v>19660</v>
+      <c r="C7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1070,8 +1076,8 @@
       <c r="B8">
         <v>824</v>
       </c>
-      <c r="C8">
-        <v>20398</v>
+      <c r="C8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1082,8 +1088,8 @@
       <c r="B9">
         <v>1015</v>
       </c>
-      <c r="C9">
-        <v>22609</v>
+      <c r="C9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1094,8 +1100,8 @@
       <c r="B10">
         <v>1006</v>
       </c>
-      <c r="C10">
-        <v>23937</v>
+      <c r="C10" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1106,8 +1112,8 @@
       <c r="B11">
         <v>914</v>
       </c>
-      <c r="C11">
-        <v>25173</v>
+      <c r="C11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1118,8 +1124,8 @@
       <c r="B12">
         <v>994</v>
       </c>
-      <c r="C12">
-        <v>22348</v>
+      <c r="C12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1130,8 +1136,8 @@
       <c r="B13">
         <v>1189</v>
       </c>
-      <c r="C13">
-        <v>25141</v>
+      <c r="C13" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1142,8 +1148,8 @@
       <c r="B14">
         <v>2573</v>
       </c>
-      <c r="C14">
-        <v>25146</v>
+      <c r="C14" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1154,8 +1160,8 @@
       <c r="B15">
         <v>3200</v>
       </c>
-      <c r="C15">
-        <v>19872</v>
+      <c r="C15" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1166,8 +1172,8 @@
       <c r="B16">
         <v>3590</v>
       </c>
-      <c r="C16">
-        <v>19923</v>
+      <c r="C16" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1178,8 +1184,8 @@
       <c r="B17">
         <v>3238</v>
       </c>
-      <c r="C17">
-        <v>21582</v>
+      <c r="C17" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1190,8 +1196,8 @@
       <c r="B18">
         <v>2417</v>
       </c>
-      <c r="C18">
-        <v>19831</v>
+      <c r="C18" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1202,8 +1208,8 @@
       <c r="B19">
         <v>3084</v>
       </c>
-      <c r="C19">
-        <v>17332</v>
+      <c r="C19" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1214,8 +1220,8 @@
       <c r="B20">
         <v>2494</v>
       </c>
-      <c r="C20">
-        <v>16407</v>
+      <c r="C20" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1226,8 +1232,8 @@
       <c r="B21">
         <v>2634</v>
       </c>
-      <c r="C21">
-        <v>15861</v>
+      <c r="C21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1238,8 +1244,8 @@
       <c r="B22">
         <v>1931</v>
       </c>
-      <c r="C22">
-        <v>15698</v>
+      <c r="C22" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1250,8 +1256,8 @@
       <c r="B23">
         <v>2736</v>
       </c>
-      <c r="C23">
-        <v>20634</v>
+      <c r="C23" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1262,8 +1268,8 @@
       <c r="B24">
         <v>1401</v>
       </c>
-      <c r="C24">
-        <v>19657</v>
+      <c r="C24" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1274,8 +1280,8 @@
       <c r="B25">
         <v>2472</v>
       </c>
-      <c r="C25">
-        <v>16983</v>
+      <c r="C25" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1286,8 +1292,8 @@
       <c r="B26">
         <v>1661</v>
       </c>
-      <c r="C26">
-        <v>15319</v>
+      <c r="C26" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1298,8 +1304,8 @@
       <c r="B27">
         <v>1606</v>
       </c>
-      <c r="C27">
-        <v>11956</v>
+      <c r="C27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1310,8 +1316,8 @@
       <c r="B28">
         <v>1292</v>
       </c>
-      <c r="C28">
-        <v>9330</v>
+      <c r="C28" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1322,8 +1328,8 @@
       <c r="B29">
         <v>5487</v>
       </c>
-      <c r="C29">
-        <v>9545</v>
+      <c r="C29" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1334,20 +1340,20 @@
       <c r="B30">
         <v>1249</v>
       </c>
-      <c r="C30">
-        <v>8932</v>
+      <c r="C30" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <f t="shared" ref="A31:A38" si="2">A32-1</f>
+        <f t="shared" ref="A31:A42" si="2">A32-1</f>
         <v>44681</v>
       </c>
       <c r="B31">
         <v>788</v>
       </c>
-      <c r="C31">
-        <v>7084</v>
+      <c r="C31" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1358,8 +1364,8 @@
       <c r="B32">
         <v>727</v>
       </c>
-      <c r="C32">
-        <v>6606</v>
+      <c r="C32" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1370,8 +1376,8 @@
       <c r="B33">
         <v>274</v>
       </c>
-      <c r="C33">
-        <v>5395</v>
+      <c r="C33" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1382,8 +1388,8 @@
       <c r="B34">
         <v>260</v>
       </c>
-      <c r="C34">
-        <v>4722</v>
+      <c r="C34" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1394,8 +1400,8 @@
       <c r="B35">
         <v>261</v>
       </c>
-      <c r="C35">
-        <v>4390</v>
+      <c r="C35" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1406,8 +1412,8 @@
       <c r="B36">
         <v>245</v>
       </c>
-      <c r="C36">
-        <v>4024</v>
+      <c r="C36" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1418,8 +1424,8 @@
       <c r="B37">
         <v>253</v>
       </c>
-      <c r="C37">
-        <v>3961</v>
+      <c r="C37" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1430,56 +1436,56 @@
       <c r="B38">
         <v>215</v>
       </c>
-      <c r="C38">
-        <v>3760</v>
+      <c r="C38" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <f>A40-1</f>
+        <f t="shared" si="2"/>
         <v>44689</v>
       </c>
       <c r="B39">
         <v>322</v>
       </c>
-      <c r="C39">
-        <v>3625</v>
+      <c r="C39" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <f>A41-1</f>
+        <f t="shared" si="2"/>
         <v>44690</v>
       </c>
       <c r="B40">
         <v>234</v>
       </c>
-      <c r="C40">
-        <v>2780</v>
+      <c r="C40" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <f>A42-1</f>
+        <f t="shared" si="2"/>
         <v>44691</v>
       </c>
       <c r="B41">
         <v>228</v>
       </c>
-      <c r="C41">
-        <v>1259</v>
+      <c r="C41" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <f>A43-1</f>
+        <f t="shared" si="2"/>
         <v>44692</v>
       </c>
       <c r="B42">
         <v>144</v>
       </c>
-      <c r="C42">
-        <v>1305</v>
+      <c r="C42" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1489,8 +1495,8 @@
       <c r="B43">
         <v>227</v>
       </c>
-      <c r="C43">
-        <v>1869</v>
+      <c r="C43" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1500,8 +1506,522 @@
       <c r="B44">
         <v>194</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <f t="shared" ref="A45:A85" si="3">A46-1</f>
+        <v>44652</v>
+      </c>
+      <c r="B45">
+        <v>6051</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <f t="shared" si="3"/>
+        <v>44653</v>
+      </c>
+      <c r="B46">
+        <v>7788</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <f t="shared" si="3"/>
+        <v>44654</v>
+      </c>
+      <c r="B47">
+        <v>8581</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <f t="shared" si="3"/>
+        <v>44655</v>
+      </c>
+      <c r="B48">
+        <v>13086</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <f t="shared" si="3"/>
+        <v>44656</v>
+      </c>
+      <c r="B49">
+        <v>16766</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <f t="shared" si="3"/>
+        <v>44657</v>
+      </c>
+      <c r="B50">
+        <v>19660</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <f t="shared" si="3"/>
+        <v>44658</v>
+      </c>
+      <c r="B51">
+        <v>20398</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <f t="shared" si="3"/>
+        <v>44659</v>
+      </c>
+      <c r="B52">
+        <v>22609</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <f t="shared" si="3"/>
+        <v>44660</v>
+      </c>
+      <c r="B53">
+        <v>23937</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <f t="shared" si="3"/>
+        <v>44661</v>
+      </c>
+      <c r="B54">
+        <v>25173</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <f t="shared" si="3"/>
+        <v>44662</v>
+      </c>
+      <c r="B55">
+        <v>22348</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <f t="shared" si="3"/>
+        <v>44663</v>
+      </c>
+      <c r="B56">
+        <v>25141</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <f t="shared" si="3"/>
+        <v>44664</v>
+      </c>
+      <c r="B57">
+        <v>25146</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <f t="shared" si="3"/>
+        <v>44665</v>
+      </c>
+      <c r="B58">
+        <v>19872</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <f t="shared" si="3"/>
+        <v>44666</v>
+      </c>
+      <c r="B59">
+        <v>19923</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <f t="shared" si="3"/>
+        <v>44667</v>
+      </c>
+      <c r="B60">
+        <v>21582</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <f t="shared" si="3"/>
+        <v>44668</v>
+      </c>
+      <c r="B61">
+        <v>19831</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <f t="shared" si="3"/>
+        <v>44669</v>
+      </c>
+      <c r="B62">
+        <v>17332</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <f t="shared" si="3"/>
+        <v>44670</v>
+      </c>
+      <c r="B63">
+        <v>16407</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <f t="shared" si="3"/>
+        <v>44671</v>
+      </c>
+      <c r="B64">
+        <v>15861</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <f t="shared" si="3"/>
+        <v>44672</v>
+      </c>
+      <c r="B65">
+        <v>15698</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <f t="shared" si="3"/>
+        <v>44673</v>
+      </c>
+      <c r="B66">
+        <v>20634</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <f t="shared" si="3"/>
+        <v>44674</v>
+      </c>
+      <c r="B67">
+        <v>19657</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <f t="shared" si="3"/>
+        <v>44675</v>
+      </c>
+      <c r="B68">
+        <v>16983</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <f t="shared" si="3"/>
+        <v>44676</v>
+      </c>
+      <c r="B69">
+        <v>15319</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <f t="shared" si="3"/>
+        <v>44677</v>
+      </c>
+      <c r="B70">
+        <v>11956</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <f t="shared" si="3"/>
+        <v>44678</v>
+      </c>
+      <c r="B71">
+        <v>9330</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <f t="shared" si="3"/>
+        <v>44679</v>
+      </c>
+      <c r="B72">
+        <v>9545</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <f t="shared" si="3"/>
+        <v>44680</v>
+      </c>
+      <c r="B73">
+        <v>8932</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <f t="shared" si="3"/>
+        <v>44681</v>
+      </c>
+      <c r="B74">
+        <v>7084</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <f t="shared" si="3"/>
+        <v>44682</v>
+      </c>
+      <c r="B75">
+        <v>6606</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <f t="shared" si="3"/>
+        <v>44683</v>
+      </c>
+      <c r="B76">
+        <v>5395</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <f t="shared" si="3"/>
+        <v>44684</v>
+      </c>
+      <c r="B77">
+        <v>4722</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <f t="shared" si="3"/>
+        <v>44685</v>
+      </c>
+      <c r="B78">
+        <v>4390</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <f t="shared" si="3"/>
+        <v>44686</v>
+      </c>
+      <c r="B79">
+        <v>4024</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <f t="shared" si="3"/>
+        <v>44687</v>
+      </c>
+      <c r="B80">
+        <v>3961</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <f t="shared" si="3"/>
+        <v>44688</v>
+      </c>
+      <c r="B81">
+        <v>3760</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <f t="shared" si="3"/>
+        <v>44689</v>
+      </c>
+      <c r="B82">
+        <v>3625</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <f t="shared" si="3"/>
+        <v>44690</v>
+      </c>
+      <c r="B83">
+        <v>2780</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <f t="shared" si="3"/>
+        <v>44691</v>
+      </c>
+      <c r="B84">
+        <v>1259</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <f t="shared" si="3"/>
+        <v>44692</v>
+      </c>
+      <c r="B85">
+        <v>1305</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>44693</v>
+      </c>
+      <c r="B86">
+        <v>1869</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>44694</v>
+      </c>
+      <c r="B87">
         <v>1487</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Shanghai_COVID.xlsx
+++ b/Shanghai_COVID.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -25,10 +25,10 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Confirmed</t>
+    <t>确诊</t>
   </si>
   <si>
-    <t>No Symptom</t>
+    <t>无症状</t>
   </si>
 </sst>
 </file>
@@ -36,11 +36,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -51,8 +51,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -65,9 +73,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,18 +88,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,11 +103,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,36 +152,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,24 +174,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,37 +204,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,145 +378,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,13 +398,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -420,6 +424,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,41 +464,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,6 +484,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -503,10 +503,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -515,144 +515,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -974,19 +971,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.6363636363636"/>
+    <col min="1" max="1" width="10.6363636363636" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1500,7 +1497,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>44694</v>
       </c>
       <c r="B44">
@@ -2014,7 +2011,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>44694</v>
       </c>
       <c r="B87">
@@ -2022,6 +2019,809 @@
       </c>
       <c r="C87" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B88">
+        <v>358</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <f>A88</f>
+        <v>44651</v>
+      </c>
+      <c r="B89">
+        <v>4144</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <f>A88-1</f>
+        <v>44650</v>
+      </c>
+      <c r="B90">
+        <v>355</v>
+      </c>
+      <c r="C90" t="str">
+        <f>C88</f>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <f>A89-1</f>
+        <v>44650</v>
+      </c>
+      <c r="B91">
+        <v>5298</v>
+      </c>
+      <c r="C91" t="str">
+        <f>C89</f>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <f t="shared" ref="A92:A111" si="4">A90-1</f>
+        <v>44649</v>
+      </c>
+      <c r="B92">
+        <v>326</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" ref="C92:C111" si="5">C90</f>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <f t="shared" si="4"/>
+        <v>44649</v>
+      </c>
+      <c r="B93">
+        <v>5656</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="5"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <f t="shared" si="4"/>
+        <v>44648</v>
+      </c>
+      <c r="B94">
+        <v>96</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="5"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <f t="shared" si="4"/>
+        <v>44648</v>
+      </c>
+      <c r="B95">
+        <v>4381</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="5"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <f t="shared" si="4"/>
+        <v>44647</v>
+      </c>
+      <c r="B96">
+        <v>50</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="5"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <f t="shared" si="4"/>
+        <v>44647</v>
+      </c>
+      <c r="B97">
+        <v>3450</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="5"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <f t="shared" si="4"/>
+        <v>44646</v>
+      </c>
+      <c r="B98">
+        <v>45</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="5"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <f t="shared" si="4"/>
+        <v>44646</v>
+      </c>
+      <c r="B99">
+        <v>2631</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="5"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <f t="shared" si="4"/>
+        <v>44645</v>
+      </c>
+      <c r="B100">
+        <v>38</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="5"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <f t="shared" si="4"/>
+        <v>44645</v>
+      </c>
+      <c r="B101">
+        <v>2231</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="5"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <f t="shared" si="4"/>
+        <v>44644</v>
+      </c>
+      <c r="B102">
+        <v>29</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="5"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <f t="shared" si="4"/>
+        <v>44644</v>
+      </c>
+      <c r="B103">
+        <v>1580</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="5"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <f t="shared" si="4"/>
+        <v>44643</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="5"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <f t="shared" si="4"/>
+        <v>44643</v>
+      </c>
+      <c r="B105">
+        <v>979</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="5"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <f t="shared" si="4"/>
+        <v>44642</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="5"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <f t="shared" si="4"/>
+        <v>44642</v>
+      </c>
+      <c r="B107">
+        <v>977</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="5"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <f t="shared" si="4"/>
+        <v>44641</v>
+      </c>
+      <c r="B108">
+        <v>31</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="5"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <f t="shared" si="4"/>
+        <v>44641</v>
+      </c>
+      <c r="B109">
+        <v>865</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="5"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <f t="shared" si="4"/>
+        <v>44640</v>
+      </c>
+      <c r="B110">
+        <v>24</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="5"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <f t="shared" si="4"/>
+        <v>44640</v>
+      </c>
+      <c r="B111">
+        <v>734</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="5"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <f t="shared" ref="A112:A123" si="6">A110-1</f>
+        <v>44639</v>
+      </c>
+      <c r="B112">
+        <v>17</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" ref="C112:C123" si="7">C110</f>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <f t="shared" si="6"/>
+        <v>44639</v>
+      </c>
+      <c r="B113">
+        <v>492</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="7"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <f t="shared" si="6"/>
+        <v>44638</v>
+      </c>
+      <c r="B114">
+        <v>8</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="7"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <f t="shared" si="6"/>
+        <v>44638</v>
+      </c>
+      <c r="B115">
+        <v>366</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="7"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <f t="shared" si="6"/>
+        <v>44637</v>
+      </c>
+      <c r="B116">
+        <v>57</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="7"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <f t="shared" si="6"/>
+        <v>44637</v>
+      </c>
+      <c r="B117">
+        <v>203</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="7"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <f t="shared" si="6"/>
+        <v>44636</v>
+      </c>
+      <c r="B118">
+        <v>8</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="7"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <f t="shared" si="6"/>
+        <v>44636</v>
+      </c>
+      <c r="B119">
+        <v>150</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="7"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <f t="shared" si="6"/>
+        <v>44635</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="7"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <f t="shared" si="6"/>
+        <v>44635</v>
+      </c>
+      <c r="B121">
+        <v>197</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="7"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <f t="shared" si="6"/>
+        <v>44634</v>
+      </c>
+      <c r="B122">
+        <v>9</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="7"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <f t="shared" si="6"/>
+        <v>44634</v>
+      </c>
+      <c r="B123">
+        <v>130</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="7"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <f t="shared" ref="A124:A142" si="8">A122-1</f>
+        <v>44633</v>
+      </c>
+      <c r="B124">
+        <v>41</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" ref="C124:C141" si="9">C122</f>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <f t="shared" si="8"/>
+        <v>44633</v>
+      </c>
+      <c r="B125">
+        <v>128</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="9"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <f t="shared" si="8"/>
+        <v>44632</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="9"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <f t="shared" si="8"/>
+        <v>44632</v>
+      </c>
+      <c r="B127">
+        <v>64</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="9"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <f t="shared" si="8"/>
+        <v>44631</v>
+      </c>
+      <c r="B128">
+        <v>5</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="9"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <f t="shared" si="8"/>
+        <v>44631</v>
+      </c>
+      <c r="B129">
+        <v>78</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="9"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <f t="shared" si="8"/>
+        <v>44630</v>
+      </c>
+      <c r="B130">
+        <v>11</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" si="9"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <f t="shared" si="8"/>
+        <v>44630</v>
+      </c>
+      <c r="B131">
+        <v>64</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" si="9"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <f t="shared" si="8"/>
+        <v>44629</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="9"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <f t="shared" si="8"/>
+        <v>44629</v>
+      </c>
+      <c r="B133">
+        <v>76</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" si="9"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
+        <f t="shared" si="8"/>
+        <v>44628</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" si="9"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
+        <f t="shared" si="8"/>
+        <v>44628</v>
+      </c>
+      <c r="B135">
+        <v>62</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" si="9"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <f t="shared" si="8"/>
+        <v>44627</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="9"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <f t="shared" si="8"/>
+        <v>44627</v>
+      </c>
+      <c r="B137">
+        <v>51</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" si="9"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <f t="shared" si="8"/>
+        <v>44626</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" si="9"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <f t="shared" si="8"/>
+        <v>44626</v>
+      </c>
+      <c r="B139">
+        <v>45</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" si="9"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <f t="shared" si="8"/>
+        <v>44625</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" si="9"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <f t="shared" si="8"/>
+        <v>44625</v>
+      </c>
+      <c r="B141">
+        <v>28</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" si="9"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <f t="shared" ref="A142:A147" si="10">A140-1</f>
+        <v>44624</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" ref="C142:C147" si="11">C140</f>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <f t="shared" si="10"/>
+        <v>44624</v>
+      </c>
+      <c r="B143">
+        <v>16</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" si="11"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <f t="shared" si="10"/>
+        <v>44623</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144" t="str">
+        <f t="shared" si="11"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <f t="shared" si="10"/>
+        <v>44623</v>
+      </c>
+      <c r="B145">
+        <v>14</v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" si="11"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <f t="shared" si="10"/>
+        <v>44622</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146" t="str">
+        <f t="shared" si="11"/>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <f t="shared" si="10"/>
+        <v>44622</v>
+      </c>
+      <c r="B147">
+        <v>5</v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" si="11"/>
+        <v>无症状</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <f>A146-1</f>
+        <v>44621</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148" t="str">
+        <f>C146</f>
+        <v>确诊</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <f>A147-1</f>
+        <v>44621</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149" t="str">
+        <f>C147</f>
+        <v>无症状</v>
       </c>
     </row>
   </sheetData>
